--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il12a</t>
+  </si>
+  <si>
+    <t>Il12rb2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il12a</t>
-  </si>
-  <si>
-    <t>Il12rb2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.5836923333333334</v>
+        <v>2.338794666666666</v>
       </c>
       <c r="H2">
-        <v>1.751077</v>
+        <v>7.016384</v>
       </c>
       <c r="I2">
-        <v>0.177892446141138</v>
+        <v>0.8670356886266615</v>
       </c>
       <c r="J2">
-        <v>0.177892446141138</v>
+        <v>0.8670356886266616</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3965076666666666</v>
+        <v>0.08759600000000001</v>
       </c>
       <c r="N2">
-        <v>1.189523</v>
+        <v>0.262788</v>
       </c>
       <c r="O2">
-        <v>0.4130025765723914</v>
+        <v>0.1345252087590763</v>
       </c>
       <c r="P2">
-        <v>0.4130025765723914</v>
+        <v>0.1345252087590763</v>
       </c>
       <c r="Q2">
-        <v>0.2314384851412222</v>
+        <v>0.2048690576213333</v>
       </c>
       <c r="R2">
-        <v>2.082946366271</v>
+        <v>1.843821518592</v>
       </c>
       <c r="S2">
-        <v>0.07347003860905535</v>
+        <v>0.1166381570140711</v>
       </c>
       <c r="T2">
-        <v>0.07347003860905535</v>
+        <v>0.1166381570140711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.5836923333333334</v>
+        <v>2.338794666666666</v>
       </c>
       <c r="H3">
-        <v>1.751077</v>
+        <v>7.016384</v>
       </c>
       <c r="I3">
-        <v>0.177892446141138</v>
+        <v>0.8670356886266615</v>
       </c>
       <c r="J3">
-        <v>0.177892446141138</v>
+        <v>0.8670356886266616</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.313969</v>
       </c>
       <c r="O3">
-        <v>0.4562102477516186</v>
+        <v>0.6726408893402845</v>
       </c>
       <c r="P3">
-        <v>0.4562102477516186</v>
+        <v>0.6726408893402844</v>
       </c>
       <c r="Q3">
-        <v>0.2556512105125556</v>
+        <v>1.024367896455111</v>
       </c>
       <c r="R3">
-        <v>2.300860894613</v>
+        <v>9.219311068096001</v>
       </c>
       <c r="S3">
-        <v>0.08115635692719003</v>
+        <v>0.5832036566876037</v>
       </c>
       <c r="T3">
-        <v>0.08115635692719003</v>
+        <v>0.5832036566876035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.5836923333333334</v>
+        <v>2.338794666666666</v>
       </c>
       <c r="H4">
-        <v>1.751077</v>
+        <v>7.016384</v>
       </c>
       <c r="I4">
-        <v>0.177892446141138</v>
+        <v>0.8670356886266615</v>
       </c>
       <c r="J4">
-        <v>0.177892446141138</v>
+        <v>0.8670356886266616</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.376691</v>
       </c>
       <c r="O4">
-        <v>0.13078717567599</v>
+        <v>0.1928339019006393</v>
       </c>
       <c r="P4">
-        <v>0.13078717567599</v>
+        <v>0.1928339019006393</v>
       </c>
       <c r="Q4">
-        <v>0.07329054957855556</v>
+        <v>0.293667633927111</v>
       </c>
       <c r="R4">
-        <v>0.659614946207</v>
+        <v>2.643008705344</v>
       </c>
       <c r="S4">
-        <v>0.02326605060489261</v>
+        <v>0.1671938749249869</v>
       </c>
       <c r="T4">
-        <v>0.02326605060489261</v>
+        <v>0.1671938749249869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.338794666666666</v>
+        <v>0.358666</v>
       </c>
       <c r="H5">
-        <v>7.016384</v>
+        <v>1.075998</v>
       </c>
       <c r="I5">
-        <v>0.7127965890851986</v>
+        <v>0.1329643113733386</v>
       </c>
       <c r="J5">
-        <v>0.7127965890851986</v>
+        <v>0.1329643113733386</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3965076666666666</v>
+        <v>0.08759600000000001</v>
       </c>
       <c r="N5">
-        <v>1.189523</v>
+        <v>0.262788</v>
       </c>
       <c r="O5">
-        <v>0.4130025765723914</v>
+        <v>0.1345252087590763</v>
       </c>
       <c r="P5">
-        <v>0.4130025765723914</v>
+        <v>0.1345252087590763</v>
       </c>
       <c r="Q5">
-        <v>0.9273500160924443</v>
+        <v>0.031417706936</v>
       </c>
       <c r="R5">
-        <v>8.346150144831999</v>
+        <v>0.282759362424</v>
       </c>
       <c r="S5">
-        <v>0.2943868278641991</v>
+        <v>0.01788705174500519</v>
       </c>
       <c r="T5">
-        <v>0.2943868278641991</v>
+        <v>0.01788705174500519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.338794666666666</v>
+        <v>0.358666</v>
       </c>
       <c r="H6">
-        <v>7.016384</v>
+        <v>1.075998</v>
       </c>
       <c r="I6">
-        <v>0.7127965890851986</v>
+        <v>0.1329643113733386</v>
       </c>
       <c r="J6">
-        <v>0.7127965890851986</v>
+        <v>0.1329643113733386</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.313969</v>
       </c>
       <c r="O6">
-        <v>0.4562102477516186</v>
+        <v>0.6726408893402845</v>
       </c>
       <c r="P6">
-        <v>0.4562102477516186</v>
+        <v>0.6726408893402844</v>
       </c>
       <c r="Q6">
-        <v>1.024367896455111</v>
+        <v>0.1570920017846667</v>
       </c>
       <c r="R6">
-        <v>9.219311068096001</v>
+        <v>1.413828016062</v>
       </c>
       <c r="S6">
-        <v>0.3251851085030671</v>
+        <v>0.08943723265268096</v>
       </c>
       <c r="T6">
-        <v>0.3251851085030671</v>
+        <v>0.08943723265268094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.338794666666666</v>
+        <v>0.358666</v>
       </c>
       <c r="H7">
-        <v>7.016384</v>
+        <v>1.075998</v>
       </c>
       <c r="I7">
-        <v>0.7127965890851986</v>
+        <v>0.1329643113733386</v>
       </c>
       <c r="J7">
-        <v>0.7127965890851986</v>
+        <v>0.1329643113733386</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>0.376691</v>
       </c>
       <c r="O7">
-        <v>0.13078717567599</v>
+        <v>0.1928339019006393</v>
       </c>
       <c r="P7">
-        <v>0.13078717567599</v>
+        <v>0.1928339019006393</v>
       </c>
       <c r="Q7">
-        <v>0.293667633927111</v>
+        <v>0.04503541806866666</v>
       </c>
       <c r="R7">
-        <v>2.643008705344</v>
+        <v>0.405318762618</v>
       </c>
       <c r="S7">
-        <v>0.09322465271793234</v>
+        <v>0.02564002697565242</v>
       </c>
       <c r="T7">
-        <v>0.09322465271793234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.358666</v>
-      </c>
-      <c r="H8">
-        <v>1.075998</v>
-      </c>
-      <c r="I8">
-        <v>0.1093109647736634</v>
-      </c>
-      <c r="J8">
-        <v>0.1093109647736634</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.3965076666666666</v>
-      </c>
-      <c r="N8">
-        <v>1.189523</v>
-      </c>
-      <c r="O8">
-        <v>0.4130025765723914</v>
-      </c>
-      <c r="P8">
-        <v>0.4130025765723914</v>
-      </c>
-      <c r="Q8">
-        <v>0.1422138187726666</v>
-      </c>
-      <c r="R8">
-        <v>1.279924368954</v>
-      </c>
-      <c r="S8">
-        <v>0.0451457100991369</v>
-      </c>
-      <c r="T8">
-        <v>0.0451457100991369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.358666</v>
-      </c>
-      <c r="H9">
-        <v>1.075998</v>
-      </c>
-      <c r="I9">
-        <v>0.1093109647736634</v>
-      </c>
-      <c r="J9">
-        <v>0.1093109647736634</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.4379896666666667</v>
-      </c>
-      <c r="N9">
-        <v>1.313969</v>
-      </c>
-      <c r="O9">
-        <v>0.4562102477516186</v>
-      </c>
-      <c r="P9">
-        <v>0.4562102477516186</v>
-      </c>
-      <c r="Q9">
-        <v>0.1570920017846667</v>
-      </c>
-      <c r="R9">
-        <v>1.413828016062</v>
-      </c>
-      <c r="S9">
-        <v>0.04986878232136144</v>
-      </c>
-      <c r="T9">
-        <v>0.04986878232136144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.358666</v>
-      </c>
-      <c r="H10">
-        <v>1.075998</v>
-      </c>
-      <c r="I10">
-        <v>0.1093109647736634</v>
-      </c>
-      <c r="J10">
-        <v>0.1093109647736634</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.1255636666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.376691</v>
-      </c>
-      <c r="O10">
-        <v>0.13078717567599</v>
-      </c>
-      <c r="P10">
-        <v>0.13078717567599</v>
-      </c>
-      <c r="Q10">
-        <v>0.04503541806866666</v>
-      </c>
-      <c r="R10">
-        <v>0.405318762618</v>
-      </c>
-      <c r="S10">
-        <v>0.01429647235316507</v>
-      </c>
-      <c r="T10">
-        <v>0.01429647235316507</v>
+        <v>0.02564002697565242</v>
       </c>
     </row>
   </sheetData>
